--- a/01_【09_JISA】別添3_TrustedWeb_実証結果シート.xlsx
+++ b/01_【09_JISA】別添3_TrustedWeb_実証結果シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\工業会証明書デジタル化コンソーシアム\70_成果物の作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\工業会証明書デジタル化コンソーシアム\100_納入成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4943B8DF-AFD9-4A1A-A3CE-0FB4BEF3DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495324E0-1CE4-4B8A-9B89-8156B1ADAD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="540" windowWidth="14970" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="945" windowWidth="19200" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="①実証結果まとめ" sheetId="1" r:id="rId1"/>
@@ -991,10 +991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -1353,8 +1356,9 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>